--- a/Project_docs/Formularz testu wyświetlenia zawartości tabeli- v.2022.06.22.xlsx
+++ b/Project_docs/Formularz testu wyświetlenia zawartości tabeli- v.2022.06.22.xlsx
@@ -88,9 +88,6 @@
     <t>Wykonany</t>
   </si>
   <si>
-    <t>Sprawdzenie czy funkcjonalność wyświetlania zawartości tabeli Plugins działa poprawnie</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Dotyczy: </t>
     </r>
@@ -112,29 +109,30 @@
     <t>Nr. 1</t>
   </si>
   <si>
+    <t>Test wyświetlenia zawartości tabeli</t>
+  </si>
+  <si>
+    <t>Baza danych "dbo.Plugins"
+Tabela "Makers"</t>
+  </si>
+  <si>
+    <t>Dodanie do tabeli 2000 rekordów</t>
+  </si>
+  <si>
+    <t>Formularz testu objetościowego - v.2022.06.22</t>
+  </si>
+  <si>
     <t>Krok 1. 
-Naciśnięcie przycisku "VST Plugins"
-System otwiera okno o nazwie "VST Plugins"
+Naciśnięcie przycisku "Plugin makers"
+System otwiera okno o nazwie "Plugin Makers"
 Wynik kroku: pozytywny</t>
   </si>
   <si>
-    <t>Dodanie do tabeli rekordu o wartościach:
-|1|Vital|3|2|https://vital.audio|</t>
-  </si>
-  <si>
-    <t>Baza danych "dbo.Plugins"
-Tabela "Plugins"</t>
-  </si>
-  <si>
-    <t>Test wyświetlenia zawartości tabeli</t>
-  </si>
-  <si>
-    <t>Formularz testu wyświetlenia zawartości tabeli - v.2022.06.22</t>
+    <t>Sprawdzenie czy funkcjonalność wyświetlania zawartości tabeli Makers działa poprawnie dla dużej ilości rekordów</t>
   </si>
   <si>
     <t>Krok 2. 
-Sprawdzenie czy w tabeli znajduje się rekord o wartościach:
-|1|Vital|3|2|https://vital.audio|
+Sprawdzenie czy nie ma spowolnień w otwieraniu okna
 Wynik kroku: pozytywny</t>
   </si>
 </sst>
@@ -340,9 +338,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -357,31 +380,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -734,7 +732,7 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:F13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -757,8 +755,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15">
-      <c r="A1" s="16"/>
-      <c r="B1" s="17"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
@@ -787,13 +785,13 @@
       <c r="T1" s="4"/>
     </row>
     <row r="2" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E2" s="10">
         <v>44735</v>
@@ -821,14 +819,14 @@
         <v>9</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="C3" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -868,16 +866,16 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="1"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -895,20 +893,20 @@
       <c r="T5" s="4"/>
     </row>
     <row r="6" spans="1:20" ht="15">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="27">
         <v>44735</v>
       </c>
-      <c r="F6" s="13"/>
+      <c r="F6" s="15"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -949,12 +947,12 @@
       <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="19" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
@@ -975,12 +973,12 @@
       <c r="T8" s="4"/>
     </row>
     <row r="9" spans="1:20" ht="44.25" customHeight="1">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27" t="s">
-        <v>29</v>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -992,8 +990,8 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -1027,14 +1025,14 @@
       <c r="T10" s="4"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1051,14 +1049,14 @@
       <c r="T11" s="4"/>
     </row>
     <row r="12" spans="1:20" s="2" customFormat="1" ht="87" customHeight="1">
-      <c r="A12" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
+      <c r="A12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -1075,14 +1073,14 @@
       <c r="T12" s="5"/>
     </row>
     <row r="13" spans="1:20" ht="100.5" customHeight="1">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1099,12 +1097,12 @@
       <c r="T13" s="4"/>
     </row>
     <row r="14" spans="1:20" ht="85.5" customHeight="1">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -1121,12 +1119,12 @@
       <c r="T14" s="4"/>
     </row>
     <row r="15" spans="1:20" ht="100.5" customHeight="1">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -1176,6 +1174,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A7:F7"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="A14:F14"/>
@@ -1185,16 +1193,6 @@
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:F9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1219,17 +1217,17 @@
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="13"/>
+      <c r="C1" s="15"/>
       <c r="D1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="28"/>
@@ -1275,13 +1273,13 @@
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="40" t="s">
